--- a/webscraping/errodring/equipo.xlsx
+++ b/webscraping/errodring/equipo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -465,31 +465,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Barcelona </t>
+          <t xml:space="preserve"> Atlético </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atlético </t>
+          <t xml:space="preserve"> Barcelona </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -513,55 +513,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rayo Vallecano </t>
+          <t xml:space="preserve"> Real Betis </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Betis </t>
+          <t xml:space="preserve"> Las Palmas </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valencia </t>
+          <t xml:space="preserve"> Rayo Vallecano </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Las Palmas </t>
+          <t xml:space="preserve"> Valencia </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -573,79 +573,79 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Osasuna </t>
+          <t xml:space="preserve"> Villarreal </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cádiz </t>
+          <t xml:space="preserve"> Deportivo </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sevilla </t>
+          <t xml:space="preserve"> Osasuna </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mallorca </t>
+          <t xml:space="preserve"> Sevilla </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Villarreal </t>
+          <t xml:space="preserve"> Cádiz </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deportivo </t>
+          <t xml:space="preserve"> Mallorca </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
